--- a/www/IndicatorsPerCountry/Russia_CompetitivenessofParticipationsPARCOMP_TerritorialRef_1991_2012_CCode_643.xlsx
+++ b/www/IndicatorsPerCountry/Russia_CompetitivenessofParticipationsPARCOMP_TerritorialRef_1991_2012_CCode_643.xlsx
@@ -78,13 +78,13 @@
     <t>Marshall, M. G., T. R. Gurr and K. Jaggers (2015). Competitiveness of Participations (PARCOMP). http://hdl.handle.net/10622/9J8MJG, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_9J8MJG.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_9J8MJG.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_9J8MJG.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_9J8MJG.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_9J8MJG.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_9J8MJG.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Russia_CompetitivenessofParticipationsPARCOMP_TerritorialRef_1991_2012_CCode_643.xlsx
+++ b/www/IndicatorsPerCountry/Russia_CompetitivenessofParticipationsPARCOMP_TerritorialRef_1991_2012_CCode_643.xlsx
@@ -75,7 +75,7 @@
     <t>https://www.clio-infra.eu/IndicatorsPerCountry/Russia_CompetitivenessofParticipationsPARCOMP_TerritorialRef_1991_2012_CCode_643.xlsx</t>
   </si>
   <si>
-    <t>Marshall, M. G., T. R. Gurr and K. Jaggers (2015). Competitiveness of Participations (PARCOMP). http://hdl.handle.net/10622/9J8MJG, accessed via the Clio Infra website.</t>
+    <t>Marshall, M. G., T. R. Gurr, and K. Jaggers (2015). Competitiveness of Participations (PARCOMP). http://hdl.handle.net/10622/9J8MJG, accessed via the Clio Infra website.</t>
   </si>
   <si>
     <t>https://www.clio-infra.eu/Citations/DOI-10622_9J8MJG.xml</t>
